--- a/biology/Médecine/Dora_Akunyili/Dora_Akunyili.xlsx
+++ b/biology/Médecine/Dora_Akunyili/Dora_Akunyili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr Dora Nkem Akunyili, née le 14 juillet 1954 à Makurdi au Nigeria et morte en Inde le 7 juin 2014 (à 59 ans)[1], est spécialisée en pharmacologie et, depuis 2001, la directrice de l’Agence nationale de contrôle de la nourriture et des médicaments (National Agency for Food and Drug Administration and Control, NAFDAC) au Nigeria. Elle a été reconnue internationalement pour son travail contre les médicaments de contrefaçon et a été récompensée à plusieurs reprises. Elle a été professeur de pharmacologie au campus Enugu de l’UNN.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dr Dora Nkem Akunyili, née le 14 juillet 1954 à Makurdi au Nigeria et morte en Inde le 7 juin 2014 (à 59 ans), est spécialisée en pharmacologie et, depuis 2001, la directrice de l’Agence nationale de contrôle de la nourriture et des médicaments (National Agency for Food and Drug Administration and Control, NAFDAC) au Nigeria. Elle a été reconnue internationalement pour son travail contre les médicaments de contrefaçon et a été récompensée à plusieurs reprises. Elle a été professeur de pharmacologie au campus Enugu de l’UNN.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dora Nkem Akunyili est née le 14 juillet 1954 à Makurdi dans le Benue au Nigeria. Fille du chef Paul Young Edemobi, elle a grandi dans une famille catholique pratiquante. Elle se marie avec le docteur J.C. Akunyili, avec qui elle a 6 enfants[2].
-Elle obtient un diplôme B. Pharm de pharmacie en 1978 et un Ph.D. en 1985 à l’UNN. Elle fait ensuite un post-doctorat à l’université de Londres en 1989. En 1995, Dora Nkem Akunyili devient Secrétaire du Fonds pétrolier spécial pour l’aide aux démunis. Elle devient professeur à l’UNN en 2000 et directrice de la NAFDAC en 2001[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dora Nkem Akunyili est née le 14 juillet 1954 à Makurdi dans le Benue au Nigeria. Fille du chef Paul Young Edemobi, elle a grandi dans une famille catholique pratiquante. Elle se marie avec le docteur J.C. Akunyili, avec qui elle a 6 enfants.
+Elle obtient un diplôme B. Pharm de pharmacie en 1978 et un Ph.D. en 1985 à l’UNN. Elle fait ensuite un post-doctorat à l’université de Londres en 1989. En 1995, Dora Nkem Akunyili devient Secrétaire du Fonds pétrolier spécial pour l’aide aux démunis. Elle devient professeur à l’UNN en 2000 et directrice de la NAFDAC en 2001.
 Elle est ministre de l'Information et de la Communication entre 2009 et 2010.
 </t>
         </is>
